--- a/biology/Botanique/Lepuropetalaceae/Lepuropetalaceae.xlsx
+++ b/biology/Botanique/Lepuropetalaceae/Lepuropetalaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La petite famille des Lépuropétalacées ne comprend qu'une espèce de plante dicotylédone des Amériques, du genre Lepuropetalon : Lepuropetalon spathulatum.
-Certains auteurs considèrent Lepuropetalon comme la plus petite plante à fleur terrestre, ce qui lui a valu le nom commun de « petiteplant » utilisé littéralement dans la littérature botanique anglophone[1].
+Certains auteurs considèrent Lepuropetalon comme la plus petite plante à fleur terrestre, ce qui lui a valu le nom commun de « petiteplant » utilisé littéralement dans la littérature botanique anglophone.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre Lepuropetalon (en), Elliott, 1817. Cependant, Elliott n'a pas écrit d'étymologie pour le nom, et les auteurs ultérieurs ont divergé sur son interprétation. Tous s'accordent à dire que le nom est d'origine grecque et que le suffixe -petalon / πεταλον, est le terme grec pour « pétale ou feuille ». Mais tous ne sont pas d'accord sur la signification du préfixe lepuro- : certains disent qu'il serait dérivé de lepyron / λεπυρον, « enveloppe ou coquille », en référence à l'inclusion des pétales dans le calice[2],[3], tandis que d'autres avancent que ce préfixe dériverait de lepros / λεπρός, signifiant « écailleux », en se référant aux pétales en forme d'écailles[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre Lepuropetalon (en), Elliott, 1817. Cependant, Elliott n'a pas écrit d'étymologie pour le nom, et les auteurs ultérieurs ont divergé sur son interprétation. Tous s'accordent à dire que le nom est d'origine grecque et que le suffixe -petalon / πεταλον, est le terme grec pour « pétale ou feuille ». Mais tous ne sont pas d'accord sur la signification du préfixe lepuro- : certains disent qu'il serait dérivé de lepyron / λεπυρον, « enveloppe ou coquille », en référence à l'inclusion des pétales dans le calice tandis que d'autres avancent que ce préfixe dériverait de lepros / λεπρός, signifiant « écailleux », en se référant aux pétales en forme d'écailles.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette famille est optionnelle dans la classification phylogénétique APG (1998)[5] et dans la classification phylogénétique APG II (2003)[6] ; alternativement elle peut être incluse dans les Parnassiacées.
-En classification phylogénétique APG III (2009)[7] et en classification phylogénétique APG IV (2016)[8] cette famille est invalide et son unique genre est incorporé dans la famille Celastraceae.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette famille est optionnelle dans la classification phylogénétique APG (1998) et dans la classification phylogénétique APG II (2003) ; alternativement elle peut être incluse dans les Parnassiacées.
+En classification phylogénétique APG III (2009) et en classification phylogénétique APG IV (2016) cette famille est invalide et son unique genre est incorporé dans la famille Celastraceae.
 Angiosperm Phylogeny Website ne reconnait plus, au 10 juin 2010, cette famille.
 Sur les autres projets Wikimedia :
 Lepuropetalaceae, sur Wikimedia Commons
